--- a/experiment_results/backup_result/worst_case/Elevator/5wise/0.5_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/Elevator/5wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="43">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -572,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -604,7 +606,7 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -700,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -732,7 +734,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>110</v>
@@ -764,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>101</v>
@@ -796,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -828,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -860,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -956,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>33</v>
@@ -988,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>34</v>
@@ -1212,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -1276,7 +1278,7 @@
         <v>92</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -1308,7 +1310,7 @@
         <v>123</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>14</v>
@@ -1340,7 +1342,7 @@
         <v>89</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -1372,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -1436,7 +1438,7 @@
         <v>58</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -1468,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -1500,7 +1502,7 @@
         <v>66</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>156</v>
@@ -1532,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -1673,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1705,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1801,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1833,7 +1835,7 @@
         <v>61</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>108</v>
@@ -1856,16 +1858,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>99</v>
@@ -1897,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -1929,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1961,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2057,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2080,16 +2082,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -2313,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -2377,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2409,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2441,7 +2443,7 @@
         <v>61</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>8</v>
@@ -2473,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2537,7 +2539,7 @@
         <v>36</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -2569,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -2601,7 +2603,7 @@
         <v>123</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>156</v>
@@ -2633,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>7</v>
@@ -2774,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2806,7 +2808,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2902,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -2925,16 +2927,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>56</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>110</v>
@@ -2957,16 +2959,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="C9">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D9">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>101</v>
@@ -2998,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -3030,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -3062,7 +3064,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3158,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -3181,16 +3183,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>10</v>
@@ -3405,16 +3407,16 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -3478,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3510,7 +3512,7 @@
         <v>14</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3542,7 +3544,7 @@
         <v>67</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>8</v>
@@ -3574,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -3638,7 +3640,7 @@
         <v>32</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -3670,7 +3672,7 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3693,16 +3695,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="D32">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>156</v>
@@ -3728,13 +3730,13 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>8</v>
@@ -3869,13 +3871,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -3907,7 +3909,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -3994,16 +3996,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>294</v>
@@ -4026,16 +4028,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="C8">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>292</v>
@@ -4058,16 +4060,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="C9">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="D9">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>418</v>
@@ -4090,16 +4092,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>393</v>
@@ -4131,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -4163,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4250,16 +4252,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>82</v>
@@ -4282,16 +4284,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="C16">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="D16">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>418</v>
@@ -4506,16 +4508,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>307</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>307</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>368</v>
@@ -4579,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4602,16 +4604,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -4643,7 +4645,7 @@
         <v>67</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>8</v>
@@ -4666,16 +4668,16 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -4739,7 +4741,7 @@
         <v>41</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -4762,16 +4764,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -4794,16 +4796,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="C32">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="D32">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>334</v>
@@ -4826,16 +4828,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="D33">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>363</v>
@@ -4970,13 +4972,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -5008,7 +5010,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5095,16 +5097,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>294</v>
@@ -5127,16 +5129,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>292</v>
@@ -5159,16 +5161,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C9">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="D9">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>418</v>
@@ -5191,16 +5193,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>393</v>
@@ -5232,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -5258,13 +5260,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5354,13 +5356,13 @@
         <v>52</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>51</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>82</v>
@@ -5383,16 +5385,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C16">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>418</v>
@@ -5607,16 +5609,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>368</v>
@@ -5680,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -5712,7 +5714,7 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -5744,7 +5746,7 @@
         <v>67</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>8</v>
@@ -5770,13 +5772,13 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -5840,7 +5842,7 @@
         <v>41</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -5866,13 +5868,13 @@
         <v>17</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>16</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -5895,16 +5897,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="C32">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>334</v>
@@ -5927,16 +5929,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="C33">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="D33">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>363</v>
@@ -6077,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6109,7 +6111,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6205,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -6237,7 +6239,7 @@
         <v>23</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>47</v>
@@ -6269,7 +6271,7 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -6301,7 +6303,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -6333,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -6365,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6461,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -6493,7 +6495,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -6717,7 +6719,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -6781,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6813,7 +6815,7 @@
         <v>7</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -6845,7 +6847,7 @@
         <v>61</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -6877,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -6941,7 +6943,7 @@
         <v>27</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -6973,7 +6975,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -7005,7 +7007,7 @@
         <v>89</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>100</v>
@@ -7037,7 +7039,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -7178,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -7210,7 +7212,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -7306,7 +7308,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -7338,7 +7340,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -7370,7 +7372,7 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -7402,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -7434,7 +7436,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -7466,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7562,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7594,7 +7596,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -7818,7 +7820,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -7882,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -7914,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -7946,7 +7948,7 @@
         <v>42</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -7978,7 +7980,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -8042,7 +8044,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -8074,7 +8076,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -8106,7 +8108,7 @@
         <v>25</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>27</v>
@@ -8138,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -8174,6 +8176,2208 @@
       </c>
       <c r="G34">
         <v>6</v>
+      </c>
+      <c r="H34">
+        <v>449</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>449</v>
+      </c>
+      <c r="L34">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>449</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>396</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>371</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>449</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>449</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>366</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>261</v>
+      </c>
+      <c r="G8">
+        <v>32</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>374</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>237</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>388</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>366</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>371</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>261</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>396</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>449</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>449</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>264</v>
+      </c>
+      <c r="G15">
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>374</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>237</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>388</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>449</v>
+      </c>
+      <c r="L17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>449</v>
+      </c>
+      <c r="L18">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>449</v>
+      </c>
+      <c r="L19">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>449</v>
+      </c>
+      <c r="L20">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>449</v>
+      </c>
+      <c r="L21">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>449</v>
+      </c>
+      <c r="L22">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>121</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>366</v>
+      </c>
+      <c r="L23">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>449</v>
+      </c>
+      <c r="L24">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>225</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>388</v>
+      </c>
+      <c r="L25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>216</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>388</v>
+      </c>
+      <c r="L26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>287</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>388</v>
+      </c>
+      <c r="L27">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>238</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>449</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>388</v>
+      </c>
+      <c r="L28">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>449</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>449</v>
+      </c>
+      <c r="L29">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>287</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>449</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>388</v>
+      </c>
+      <c r="L30">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>239</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>449</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>388</v>
+      </c>
+      <c r="L31">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>243</v>
+      </c>
+      <c r="G32">
+        <v>49</v>
+      </c>
+      <c r="H32">
+        <v>449</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>382</v>
+      </c>
+      <c r="L32">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>218</v>
+      </c>
+      <c r="G33">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>449</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>366</v>
+      </c>
+      <c r="L33">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>449</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>449</v>
+      </c>
+      <c r="L34">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>106</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>449</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>239</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>73</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>324</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>449</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>449</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>340</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>449</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>195</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>194</v>
+      </c>
+      <c r="E8">
+        <v>261</v>
+      </c>
+      <c r="G8">
+        <v>332</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>67</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>232</v>
+      </c>
+      <c r="C9">
+        <v>149</v>
+      </c>
+      <c r="D9">
+        <v>232</v>
+      </c>
+      <c r="E9">
+        <v>237</v>
+      </c>
+      <c r="G9">
+        <v>419</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>67</v>
+      </c>
+      <c r="G10">
+        <v>401</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>449</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>112</v>
+      </c>
+      <c r="E12">
+        <v>261</v>
+      </c>
+      <c r="G12">
+        <v>137</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>429</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>449</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>449</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>183</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>182</v>
+      </c>
+      <c r="E15">
+        <v>264</v>
+      </c>
+      <c r="G15">
+        <v>322</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>232</v>
+      </c>
+      <c r="C16">
+        <v>182</v>
+      </c>
+      <c r="D16">
+        <v>232</v>
+      </c>
+      <c r="E16">
+        <v>237</v>
+      </c>
+      <c r="G16">
+        <v>418</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>22</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>449</v>
+      </c>
+      <c r="L17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>449</v>
+      </c>
+      <c r="L18">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>449</v>
+      </c>
+      <c r="L19">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>60</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>449</v>
+      </c>
+      <c r="L20">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-1</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>338</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>449</v>
+      </c>
+      <c r="L21">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>449</v>
+      </c>
+      <c r="L22">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>79</v>
+      </c>
+      <c r="C23">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>121</v>
+      </c>
+      <c r="G23">
+        <v>395</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>396</v>
+      </c>
+      <c r="L23">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>449</v>
+      </c>
+      <c r="L24">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>225</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>203</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>203</v>
+      </c>
+      <c r="E26">
+        <v>216</v>
+      </c>
+      <c r="G26">
+        <v>133</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>219</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>219</v>
+      </c>
+      <c r="E27">
+        <v>287</v>
+      </c>
+      <c r="G27">
+        <v>164</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>115</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>114</v>
+      </c>
+      <c r="E28">
+        <v>238</v>
+      </c>
+      <c r="G28">
+        <v>159</v>
+      </c>
+      <c r="H28">
+        <v>449</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>22</v>
+      </c>
+      <c r="L28">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-1</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>437</v>
+      </c>
+      <c r="H29">
+        <v>449</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>449</v>
+      </c>
+      <c r="L29">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>184</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>184</v>
+      </c>
+      <c r="E30">
+        <v>287</v>
+      </c>
+      <c r="G30">
+        <v>74</v>
+      </c>
+      <c r="H30">
+        <v>449</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>22</v>
+      </c>
+      <c r="L30">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>116</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>115</v>
+      </c>
+      <c r="E31">
+        <v>239</v>
+      </c>
+      <c r="G31">
+        <v>159</v>
+      </c>
+      <c r="H31">
+        <v>449</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>22</v>
+      </c>
+      <c r="L31">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>179</v>
+      </c>
+      <c r="C32">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>178</v>
+      </c>
+      <c r="E32">
+        <v>243</v>
+      </c>
+      <c r="G32">
+        <v>340</v>
+      </c>
+      <c r="H32">
+        <v>449</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>83</v>
+      </c>
+      <c r="L32">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>171</v>
+      </c>
+      <c r="C33">
+        <v>173</v>
+      </c>
+      <c r="D33">
+        <v>171</v>
+      </c>
+      <c r="E33">
+        <v>218</v>
+      </c>
+      <c r="G33">
+        <v>393</v>
+      </c>
+      <c r="H33">
+        <v>449</v>
+      </c>
+      <c r="J33">
+        <v>9</v>
+      </c>
+      <c r="K33">
+        <v>374</v>
+      </c>
+      <c r="L33">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>210</v>
       </c>
       <c r="H34">
         <v>449</v>
@@ -8279,7 +10483,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -8311,7 +10515,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -8407,7 +10611,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -8439,7 +10643,7 @@
         <v>4</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>46</v>
@@ -8471,7 +10675,7 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -8503,7 +10707,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -8535,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -8567,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8663,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -8695,7 +10899,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -8919,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -8983,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9015,7 +11219,7 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -9047,7 +11251,7 @@
         <v>59</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -9079,7 +11283,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -9143,7 +11347,7 @@
         <v>26</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -9175,7 +11379,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -9207,7 +11411,7 @@
         <v>84</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>96</v>
@@ -9239,7 +11443,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -9380,7 +11584,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -9412,7 +11616,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -9508,7 +11712,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -9540,7 +11744,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -9563,16 +11767,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -9604,7 +11808,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -9636,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -9668,7 +11872,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9764,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -9796,7 +12000,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -10020,7 +12224,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -10084,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -10116,7 +12320,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -10148,7 +12352,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -10180,7 +12384,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -10244,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -10276,7 +12480,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -10308,7 +12512,7 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>7</v>
@@ -10340,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -10481,7 +12685,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -10513,7 +12717,7 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -10609,7 +12813,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -10641,7 +12845,7 @@
         <v>64</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>110</v>
@@ -10664,16 +12868,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>101</v>
@@ -10705,7 +12909,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>14</v>
@@ -10737,7 +12941,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -10769,7 +12973,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -10865,7 +13069,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>33</v>
@@ -10888,16 +13092,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>34</v>
@@ -11121,7 +13325,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -11185,7 +13389,7 @@
         <v>94</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>7</v>
@@ -11217,7 +13421,7 @@
         <v>134</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>14</v>
@@ -11249,7 +13453,7 @@
         <v>160</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>11</v>
@@ -11281,7 +13485,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -11345,7 +13549,7 @@
         <v>125</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -11377,7 +13581,7 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -11409,7 +13613,7 @@
         <v>132</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>156</v>
@@ -11441,7 +13645,7 @@
         <v>4</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>10</v>
@@ -11573,16 +13777,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -11605,16 +13809,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -11701,16 +13905,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -11733,16 +13937,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>26</v>
@@ -11765,16 +13969,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -11797,16 +14001,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -11838,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -11870,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -11957,16 +14161,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -11989,16 +14193,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -12213,16 +14417,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -12277,16 +14481,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -12309,16 +14513,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -12341,16 +14545,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -12373,16 +14577,16 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -12437,16 +14641,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -12469,16 +14673,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -12501,16 +14705,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>96</v>
@@ -12533,16 +14737,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>6</v>
@@ -12683,7 +14887,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>48</v>
@@ -12715,7 +14919,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -12811,7 +15015,7 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>27</v>
@@ -12843,7 +15047,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>32</v>
@@ -12875,7 +15079,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -12907,7 +15111,7 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>27</v>
@@ -12939,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -12971,7 +15175,7 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -13067,7 +15271,7 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>28</v>
@@ -13099,7 +15303,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -13323,7 +15527,7 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>17</v>
@@ -13387,7 +15591,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>8</v>
@@ -13419,7 +15623,7 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>7</v>
@@ -13451,7 +15655,7 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -13483,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>7</v>
@@ -13547,7 +15751,7 @@
         <v>4</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>8</v>
@@ -13579,7 +15783,7 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>7</v>
@@ -13611,7 +15815,7 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>49</v>
@@ -13643,7 +15847,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>17</v>
@@ -13775,16 +15979,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>239</v>
@@ -13816,7 +16020,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -13903,16 +16107,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>340</v>
@@ -13935,16 +16139,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>332</v>
@@ -13967,16 +16171,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C9">
-        <v>313</v>
+        <v>224</v>
       </c>
       <c r="D9">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>419</v>
@@ -13999,16 +16203,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>401</v>
@@ -14040,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -14063,16 +16267,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>137</v>
@@ -14159,16 +16363,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>322</v>
@@ -14191,16 +16395,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C16">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="D16">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>418</v>
@@ -14415,16 +16619,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="C23">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>395</v>
@@ -14488,7 +16692,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14511,16 +16715,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>133</v>
@@ -14543,16 +16747,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>164</v>
@@ -14575,16 +16779,16 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>159</v>
@@ -14639,16 +16843,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>74</v>
@@ -14671,16 +16875,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>159</v>
@@ -14703,16 +16907,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="C32">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="D32">
+        <v>180</v>
+      </c>
+      <c r="E32">
         <v>243</v>
-      </c>
-      <c r="E32">
-        <v>306</v>
       </c>
       <c r="G32">
         <v>340</v>
@@ -14735,16 +16939,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="C33">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="D33">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>393</v>
@@ -14876,16 +17080,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>239</v>
@@ -14917,7 +17121,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -15004,16 +17208,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>340</v>
@@ -15036,16 +17240,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>241</v>
+        <v>195</v>
       </c>
       <c r="C8">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="D8">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>332</v>
@@ -15068,16 +17272,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C9">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="D9">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>419</v>
@@ -15100,16 +17304,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>401</v>
@@ -15141,7 +17345,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -15164,16 +17368,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>137</v>
@@ -15260,16 +17464,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="C15">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D15">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>322</v>
@@ -15292,16 +17496,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C16">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="D16">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>418</v>
@@ -15516,16 +17720,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="C23">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>395</v>
@@ -15589,7 +17793,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -15612,16 +17816,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>304</v>
+        <v>199</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>133</v>
@@ -15644,16 +17848,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>164</v>
@@ -15676,16 +17880,16 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>159</v>
@@ -15740,16 +17944,16 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>74</v>
@@ -15772,16 +17976,16 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>159</v>
@@ -15804,16 +18008,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="C32">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="D32">
+        <v>180</v>
+      </c>
+      <c r="E32">
         <v>243</v>
-      </c>
-      <c r="E32">
-        <v>306</v>
       </c>
       <c r="G32">
         <v>340</v>
@@ -15836,16 +18040,16 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="C33">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="D33">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>393</v>
@@ -15986,7 +18190,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -16018,7 +18222,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -16114,7 +18318,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -16146,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -16169,16 +18373,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -16210,7 +18414,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -16242,7 +18446,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -16274,7 +18478,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -16370,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -16393,16 +18597,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>326</v>
+        <v>237</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -16626,7 +18830,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>307</v>
+        <v>121</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -16690,7 +18894,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -16722,7 +18926,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -16754,7 +18958,7 @@
         <v>44</v>
       </c>
       <c r="E27">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -16786,7 +18990,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -16850,7 +19054,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -16882,7 +19086,7 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -16914,7 +19118,7 @@
         <v>24</v>
       </c>
       <c r="E32">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="G32">
         <v>34</v>
@@ -16946,7 +19150,7 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>4</v>
